--- a/docs/conduit_T-01_kezdolap_KRF.xlsx
+++ b/docs/conduit_T-01_kezdolap_KRF.xlsx
@@ -567,54 +567,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -623,7 +623,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -775,50 +775,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1190,7 +1146,7 @@
   <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,59 +1164,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1276,25 +1232,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22">
         <v>44421</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1318,14 +1274,14 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="24"/>
+      <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -1365,31 +1321,31 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="I10" s="31" t="s">
+      <c r="G10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1474,9 +1430,9 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,9 +1444,9 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1506,51 +1462,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="23"/>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="33" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
@@ -1558,10 +1514,10 @@
       <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="16" t="s">
         <v>37</v>
       </c>
@@ -1742,6 +1698,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:H31"/>
@@ -1758,63 +1771,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="13" priority="4">
